--- a/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionHierarchicalPowerReport.xlsx
+++ b/reports/vivado/UnoptimizedSolution/power/UnoptimizedSolutionHierarchicalPowerReport.xlsx
@@ -189,7 +189,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.007504792883992195</v>
+        <v>0.0075007653795182705</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -221,7 +221,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>0.0038993533235043287</v>
+        <v>0.0038178875111043453</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -253,7 +253,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="6">
-        <v>0.0038993533235043287</v>
+        <v>0.0038178875111043453</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>15</v>
@@ -285,7 +285,7 @@
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" t="n" s="5">
-        <v>0.0036054395604878664</v>
+        <v>0.003682877868413925</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>16</v>
